--- a/Auxiliary tool/bin/Debug/Exam142Score.xlsx
+++ b/Auxiliary tool/bin/Debug/Exam142Score.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\s\Auxiliary tool\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\file\AuxData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
   <si>
     <t>姓名</t>
   </si>
@@ -30,6 +30,15 @@
   </si>
   <si>
     <t>2023/03/29</t>
+  </si>
+  <si>
+    <t>2023/04/03</t>
+  </si>
+  <si>
+    <t>2023/04/08</t>
+  </si>
+  <si>
+    <t>2023/04/10</t>
   </si>
   <si>
     <t>高晗燊</t>
@@ -258,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -267,6 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B49" sqref="B1:C1048576"/>
@@ -581,7 +591,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,10 +601,19 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2.0427254521171641</v>
@@ -602,10 +621,19 @@
       <c r="C2">
         <v>0.64020516212939793</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1.9235344109422461</v>
+      </c>
+      <c r="E2">
+        <v>0.97573598141896278</v>
+      </c>
+      <c r="F2">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2.3150888457327858</v>
@@ -613,10 +641,19 @@
       <c r="C3">
         <v>2.3538856466171798</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1.9235344109422461</v>
+      </c>
+      <c r="E3">
+        <v>1.1073237855288991</v>
+      </c>
+      <c r="F3">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0.95327187765467669</v>
@@ -624,10 +661,19 @@
       <c r="C4">
         <v>0.86869589339443565</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1.3026615499194749</v>
+      </c>
+      <c r="E4">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="F4">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0.6809084840390548</v>
@@ -635,10 +681,19 @@
       <c r="C5">
         <v>1.554168087189548</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.93013783330581223</v>
+      </c>
+      <c r="E5">
+        <v>-0.60331766790027475</v>
+      </c>
+      <c r="F5">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0.95327187765467669</v>
@@ -646,10 +701,19 @@
       <c r="C6">
         <v>6.8978333966803806E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1.3026615499194749</v>
+      </c>
+      <c r="E6">
+        <v>0.31779696086928039</v>
+      </c>
+      <c r="F6">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0.2723633936156219</v>
@@ -657,10 +721,19 @@
       <c r="C7">
         <v>0.64020516212939793</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>-1.18082989417161</v>
+      </c>
+      <c r="E7">
+        <v>-1.52443229666983</v>
+      </c>
+      <c r="F7">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>-0.40854509042343279</v>
@@ -668,10 +741,19 @@
       <c r="C8">
         <v>0.64020516212939793</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0.68178868889670363</v>
+      </c>
+      <c r="E8">
+        <v>1.3704993937487719</v>
+      </c>
+      <c r="F8">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0.6809084840390548</v>
@@ -679,10 +761,19 @@
       <c r="C9">
         <v>0.41171443086436033</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>-0.55995703314883905</v>
+      </c>
+      <c r="E9">
+        <v>0.31779696086928039</v>
+      </c>
+      <c r="F9">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -690,10 +781,19 @@
       <c r="C10">
         <v>-1.987438247418535</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="E10">
+        <v>1.765262806078582</v>
+      </c>
+      <c r="F10">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0.2723633936156219</v>
@@ -701,10 +801,19 @@
       <c r="C11">
         <v>-0.15951239729823391</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>-6.3258744330621952E-2</v>
+      </c>
+      <c r="E11">
+        <v>5.4621352649407519E-2</v>
+      </c>
+      <c r="F11">
+        <v>-1.646614332341473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0.2723633936156219</v>
@@ -712,10 +821,19 @@
       <c r="C12">
         <v>0.98294125902695439</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1.9235344109422461</v>
+      </c>
+      <c r="E12">
+        <v>-0.60331766790027475</v>
+      </c>
+      <c r="F12">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>-0.40854509042343279</v>
@@ -723,10 +841,19 @@
       <c r="C13">
         <v>0.29746906523184152</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.68178868889670363</v>
+      </c>
+      <c r="E13">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="F13">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>-1.089453574462488</v>
@@ -734,10 +861,19 @@
       <c r="C14">
         <v>-0.27375776293075271</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>6.0915827873932328E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.765262806078582</v>
+      </c>
+      <c r="F14">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>1.36181696807811</v>
@@ -745,10 +881,19 @@
       <c r="C15">
         <v>-0.73073922546082803</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>-1.553353610785273</v>
+      </c>
+      <c r="E15">
+        <v>0.97573598141896278</v>
+      </c>
+      <c r="F15">
+        <v>2.1204601833749899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>-1.089453574462488</v>
@@ -756,10 +901,19 @@
       <c r="C16">
         <v>-1.987438247418535</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>6.0915827873932328E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.71256037319908982</v>
+      </c>
+      <c r="F16">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>-0.6809084840390548</v>
@@ -767,10 +921,19 @@
       <c r="C17">
         <v>0.41171443086436033</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="E17">
+        <v>-0.3401420596804019</v>
+      </c>
+      <c r="F17">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>-0.40854509042343279</v>
@@ -778,10 +941,19 @@
       <c r="C18">
         <v>0.41171443086436033</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>-2.422575616217153</v>
+      </c>
+      <c r="E18">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="F18">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0.2723633936156219</v>
@@ -789,10 +961,19 @@
       <c r="C19">
         <v>0.41171443086436033</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>-0.3116078887397305</v>
+      </c>
+      <c r="E19">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="F19">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>-2.451270542540597</v>
@@ -800,10 +981,19 @@
       <c r="C20">
         <v>-0.50224849419579032</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>-1.18082989417161</v>
+      </c>
+      <c r="E20">
+        <v>-0.60331766790027475</v>
+      </c>
+      <c r="F20">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0.2723633936156219</v>
@@ -811,10 +1001,19 @@
       <c r="C21">
         <v>0.98294125902695439</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0.68178868889670363</v>
+      </c>
+      <c r="E21">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="F21">
+        <v>-1.646614332341473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>-0.6809084840390548</v>
@@ -822,10 +1021,19 @@
       <c r="C22">
         <v>6.8978333966803806E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>-0.3116078887397305</v>
+      </c>
+      <c r="E22">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="F22">
+        <v>1.49261443075558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -833,10 +1041,19 @@
       <c r="C23">
         <v>-0.15951239729823391</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0.55761411669214944</v>
+      </c>
+      <c r="E23">
+        <v>-0.60331766790027475</v>
+      </c>
+      <c r="F23">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>-0.40854509042343279</v>
@@ -844,10 +1061,19 @@
       <c r="C24">
         <v>6.8978333966803806E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0.68178868889670363</v>
+      </c>
+      <c r="E24">
+        <v>0.71256037319908982</v>
+      </c>
+      <c r="F24">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>0.2723633936156219</v>
@@ -855,10 +1081,19 @@
       <c r="C25">
         <v>-0.50224849419579032</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="E25">
+        <v>0.71256037319908982</v>
+      </c>
+      <c r="F25">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>0.2723633936156219</v>
@@ -866,10 +1101,19 @@
       <c r="C26">
         <v>6.8978333966803806E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>-0.55995703314883905</v>
+      </c>
+      <c r="E26">
+        <v>-0.60331766790027475</v>
+      </c>
+      <c r="F26">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0.2723633936156219</v>
@@ -877,10 +1121,19 @@
       <c r="C27">
         <v>1.554168087189548</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="E27">
+        <v>-2.8403103377691949</v>
+      </c>
+      <c r="F27">
+        <v>1.49261443075558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>1.6341803616937309</v>
@@ -888,10 +1141,19 @@
       <c r="C28">
         <v>-0.15951239729823391</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0.93013783330581223</v>
+      </c>
+      <c r="E28">
+        <v>0.71256037319908982</v>
+      </c>
+      <c r="F28">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>0.6809084840390548</v>
@@ -899,10 +1161,19 @@
       <c r="C29">
         <v>-1.6447021505209789</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1.3026615499194749</v>
+      </c>
+      <c r="E29">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="F29">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>2.3150888457327858</v>
@@ -910,10 +1181,19 @@
       <c r="C30">
         <v>-0.15951239729823391</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="E30">
+        <v>3.081140847177946</v>
+      </c>
+      <c r="F30">
+        <v>2.1204601833749899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0.6809084840390548</v>
@@ -921,10 +1201,19 @@
       <c r="C31">
         <v>-0.73073922546082803</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>-6.3258744330621952E-2</v>
+      </c>
+      <c r="E31">
+        <v>-0.3401420596804019</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>-1.089453574462488</v>
@@ -932,10 +1221,19 @@
       <c r="C32">
         <v>1.2114319902919919</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0.93013783330581223</v>
+      </c>
+      <c r="E32">
+        <v>1.1073237855288991</v>
+      </c>
+      <c r="F32">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>-1.089453574462488</v>
@@ -943,10 +1241,19 @@
       <c r="C33">
         <v>1.43992272155703</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0.68178868889670363</v>
+      </c>
+      <c r="E33">
+        <v>1.3704993937487719</v>
+      </c>
+      <c r="F33">
+        <v>1.49261443075558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>1.6341803616937309</v>
@@ -954,10 +1261,19 @@
       <c r="C34">
         <v>-0.15951239729823391</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>-1.553353610785273</v>
+      </c>
+      <c r="E34">
+        <v>1.633675001968645</v>
+      </c>
+      <c r="F34">
+        <v>2.1204601833749899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>-0.40854509042343279</v>
@@ -965,10 +1281,19 @@
       <c r="C35">
         <v>1.2114319902919919</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>-0.55995703314883905</v>
+      </c>
+      <c r="E35">
+        <v>0.31779696086928039</v>
+      </c>
+      <c r="F35">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>-1.089453574462488</v>
@@ -976,10 +1301,19 @@
       <c r="C36">
         <v>-0.84498459109334678</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>-0.55995703314883905</v>
+      </c>
+      <c r="E36">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="F36">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0.6809084840390548</v>
@@ -987,10 +1321,19 @@
       <c r="C37">
         <v>-0.15951239729823391</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>-0.55995703314883905</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>-0.6809084840390548</v>
@@ -998,10 +1341,19 @@
       <c r="C38">
         <v>0.29746906523184152</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>-1.3050044663761651</v>
+      </c>
+      <c r="E38">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="F38">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>-0.40854509042343279</v>
@@ -1009,10 +1361,19 @@
       <c r="C39">
         <v>-1.6447021505209789</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="E39">
+        <v>0.31779696086928039</v>
+      </c>
+      <c r="F39">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>-0.40854509042343279</v>
@@ -1020,10 +1381,19 @@
       <c r="C40">
         <v>-1.0734753223583839</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>-0.3116078887397305</v>
+      </c>
+      <c r="E40">
+        <v>0.31779696086928039</v>
+      </c>
+      <c r="F40">
+        <v>-1.646614332341473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>0.2723633936156219</v>
@@ -1031,10 +1401,19 @@
       <c r="C41">
         <v>0.29746906523184152</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0.68178868889670363</v>
+      </c>
+      <c r="E41">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="F41">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>-0.40854509042343279</v>
@@ -1042,10 +1421,19 @@
       <c r="C42">
         <v>0.98294125902695439</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>-0.55995703314883905</v>
+      </c>
+      <c r="E42">
+        <v>5.4621352649407519E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>0.2723633936156219</v>
@@ -1053,10 +1441,19 @@
       <c r="C43">
         <v>-0.73073922546082803</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>-1.18082989417161</v>
+      </c>
+      <c r="E43">
+        <v>-0.99808108023008424</v>
+      </c>
+      <c r="F43">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1064,10 +1461,19 @@
       <c r="C44">
         <v>-0.27375776293075271</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>6.0915827873932328E-2</v>
+      </c>
+      <c r="E44">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="F44">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>-1.089453574462488</v>
@@ -1075,10 +1481,19 @@
       <c r="C45">
         <v>-0.84498459109334678</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="F45">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>-0.40854509042343279</v>
@@ -1086,10 +1501,19 @@
       <c r="C46">
         <v>6.8978333966803806E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="E46">
+        <v>5.4621352649407519E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>-1.089453574462488</v>
@@ -1097,10 +1521,19 @@
       <c r="C47">
         <v>0.98294125902695439</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="E47">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="F47">
+        <v>-1.646614332341473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1108,10 +1541,19 @@
       <c r="C48">
         <v>-1.987438247418535</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>6.0915827873932328E-2</v>
+      </c>
+      <c r="E48">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="F48">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>-0.40854509042343279</v>
@@ -1119,10 +1561,19 @@
       <c r="C49">
         <v>0.41171443086436033</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>-1.18082989417161</v>
+      </c>
+      <c r="E49">
+        <v>5.4621352649407519E-2</v>
+      </c>
+      <c r="F49">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1130,10 +1581,19 @@
       <c r="C50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0.2723633936156219</v>
@@ -1141,10 +1601,19 @@
       <c r="C51">
         <v>-1.6447021505209789</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>-0.3116078887397305</v>
+      </c>
+      <c r="E51">
+        <v>0.31779696086928039</v>
+      </c>
+      <c r="F51">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>-0.40854509042343279</v>
@@ -1152,10 +1621,19 @@
       <c r="C52">
         <v>-0.73073922546082803</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>-2.422575616217153</v>
+      </c>
+      <c r="E52">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="F52">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>-0.40854509042343279</v>
@@ -1163,10 +1641,19 @@
       <c r="C53">
         <v>1.554168087189548</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>6.0915827873932328E-2</v>
+      </c>
+      <c r="E53">
+        <v>-0.60331766790027475</v>
+      </c>
+      <c r="F53">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>0.2723633936156219</v>
@@ -1174,22 +1661,40 @@
       <c r="C54">
         <v>-0.15951239729823391</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>0.93013783330581223</v>
+      </c>
+      <c r="E54">
+        <v>5.4621352649407519E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>-0.40854509042343279</v>
       </c>
       <c r="C55">
         <v>0</v>
+      </c>
+      <c r="D55">
+        <v>-0.3116078887397305</v>
+      </c>
+      <c r="E55">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="F55">
+        <v>-1.018768579722062</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1208,15 +1713,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>-2.284237285754918</v>
@@ -1227,7 +1732,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1.0114483003299071</v>
@@ -1238,7 +1743,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>-0.1615923320053699</v>
@@ -1249,7 +1754,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1.179025533520661</v>
@@ -1260,7 +1765,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0.22942121210638899</v>
@@ -1271,7 +1776,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0.22942121210638899</v>
@@ -1282,7 +1787,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0.3411393675668915</v>
@@ -1293,7 +1798,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0.78801198940890171</v>
@@ -1304,7 +1809,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0.3411393675668915</v>
@@ -1315,7 +1820,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>5.9849011853838948E-3</v>
@@ -1326,7 +1831,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0.73215291167865049</v>
@@ -1337,7 +1842,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0.50871660075764535</v>
@@ -1348,7 +1853,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>0.56457567848789658</v>
@@ -1359,7 +1864,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0.45285752302739413</v>
@@ -1370,7 +1875,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>0.84387106713915294</v>
@@ -1381,7 +1886,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>-0.21745140973562119</v>
@@ -1392,7 +1897,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0.39699844529714279</v>
@@ -1403,7 +1908,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0.17356213437613771</v>
@@ -1414,7 +1919,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0.95558922259965551</v>
@@ -1425,7 +1930,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0.45285752302739413</v>
@@ -1436,7 +1941,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0.73215291167865049</v>
@@ -1447,7 +1952,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>6.1843978915635173E-2</v>
@@ -1458,7 +1963,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0.62043475621814792</v>
@@ -1469,7 +1974,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>0.22942121210638899</v>
@@ -1480,7 +1985,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>1.625898155362671</v>
@@ -1491,7 +1996,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0.73215291167865049</v>
@@ -1502,7 +2007,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>0.67629383394839915</v>
@@ -1513,7 +2018,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>-0.32916956519612373</v>
@@ -1524,7 +2029,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0.67629383394839915</v>
@@ -1535,7 +2040,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>-0.72018310930788265</v>
@@ -1546,7 +2051,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0.95558922259965551</v>
@@ -1557,7 +2062,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>1.346602766711414</v>
@@ -1568,7 +2073,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>-2.284237285754918</v>
@@ -1579,7 +2084,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>-0.66432403157763142</v>
@@ -1590,7 +2095,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>0.3411393675668915</v>
@@ -1601,7 +2106,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>-4.987417654486738E-2</v>
@@ -1612,7 +2117,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>-2.284237285754918</v>
@@ -1623,7 +2128,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>0.67629383394839915</v>
@@ -1634,7 +2139,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>-0.32916956519612373</v>
@@ -1645,7 +2150,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>6.1843978915635173E-2</v>
@@ -1656,7 +2161,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>-0.66432403157763142</v>
@@ -1667,7 +2172,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>-0.88776034249863645</v>
@@ -1678,7 +2183,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>-0.72018310930788265</v>
@@ -1689,7 +2194,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1700,7 +2205,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>0.73215291167865049</v>
@@ -1711,7 +2216,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>-0.44088772065662629</v>
@@ -1722,7 +2227,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>-2.284237285754918</v>
@@ -1733,7 +2238,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>-2.284237285754918</v>
@@ -1744,7 +2249,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>-0.77604218703813388</v>
@@ -1755,7 +2260,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>1.346602766711414</v>
@@ -1766,7 +2271,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>-2.284237285754918</v>
@@ -1777,7 +2282,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>6.1843978915635173E-2</v>
@@ -1788,7 +2293,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>-0.10573325427511859</v>
@@ -1799,7 +2304,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>0.67629383394839915</v>
@@ -1816,90 +2321,132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N44" sqref="N44"/>
+      <selection pane="topRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>121420100</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>80</v>
@@ -1937,13 +2484,40 @@
       <c r="N3" s="3">
         <v>0.28652782116636272</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="3">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1.9235344109422461</v>
+      </c>
+      <c r="R3" s="3">
+        <v>40</v>
+      </c>
+      <c r="S3" s="3">
+        <v>29</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.97573598141896278</v>
+      </c>
+      <c r="U3" s="3">
+        <v>45</v>
+      </c>
+      <c r="V3" s="3">
+        <v>15</v>
+      </c>
+      <c r="W3" s="3">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>121420200</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>80</v>
@@ -1981,13 +2555,40 @@
       <c r="N4" s="3">
         <v>0.2138676559902038</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="3">
+        <v>40</v>
+      </c>
+      <c r="P4" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1.9235344109422461</v>
+      </c>
+      <c r="R4" s="3">
+        <v>40</v>
+      </c>
+      <c r="S4" s="3">
+        <v>30</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1.1073237855288991</v>
+      </c>
+      <c r="U4" s="3">
+        <v>45</v>
+      </c>
+      <c r="V4" s="3">
+        <v>15</v>
+      </c>
+      <c r="W4" s="3">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>121420300</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>80</v>
@@ -2025,13 +2626,40 @@
       <c r="N5" s="3">
         <v>2.46633277645113</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="3">
+        <v>40</v>
+      </c>
+      <c r="P5" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1.3026615499194749</v>
+      </c>
+      <c r="R5" s="3">
+        <v>40</v>
+      </c>
+      <c r="S5" s="3">
+        <v>20</v>
+      </c>
+      <c r="T5" s="3">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="U5" s="3">
+        <v>45</v>
+      </c>
+      <c r="V5" s="3">
+        <v>25</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>121420400</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>80</v>
@@ -2069,13 +2697,40 @@
       <c r="N6" s="3">
         <v>1.5217506291610641</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="3">
+        <v>40</v>
+      </c>
+      <c r="P6" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.93013783330581223</v>
+      </c>
+      <c r="R6" s="3">
+        <v>40</v>
+      </c>
+      <c r="S6" s="3">
+        <v>17</v>
+      </c>
+      <c r="T6" s="3">
+        <v>-0.60331766790027475</v>
+      </c>
+      <c r="U6" s="3">
+        <v>45</v>
+      </c>
+      <c r="V6" s="3">
+        <v>30</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>121420500</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>80</v>
@@ -2113,13 +2768,40 @@
       <c r="N7" s="3">
         <v>1.376430298808746</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="3">
+        <v>40</v>
+      </c>
+      <c r="P7" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1.3026615499194749</v>
+      </c>
+      <c r="R7" s="3">
+        <v>40</v>
+      </c>
+      <c r="S7" s="3">
+        <v>24</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.31779696086928039</v>
+      </c>
+      <c r="U7" s="3">
+        <v>45</v>
+      </c>
+      <c r="V7" s="3">
+        <v>30</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>121420600</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>80</v>
@@ -2157,13 +2839,40 @@
       <c r="N8" s="3">
         <v>0.7951489773994751</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="3">
+        <v>40</v>
+      </c>
+      <c r="P8" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-1.18082989417161</v>
+      </c>
+      <c r="R8" s="3">
+        <v>40</v>
+      </c>
+      <c r="S8" s="3">
+        <v>10</v>
+      </c>
+      <c r="T8" s="3">
+        <v>-1.52443229666983</v>
+      </c>
+      <c r="U8" s="3">
+        <v>45</v>
+      </c>
+      <c r="V8" s="3">
+        <v>25</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>121420700</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>80</v>
@@ -2201,13 +2910,40 @@
       <c r="N9" s="3">
         <v>2.1030319505703359</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="3">
+        <v>40</v>
+      </c>
+      <c r="P9" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.68178868889670363</v>
+      </c>
+      <c r="R9" s="3">
+        <v>40</v>
+      </c>
+      <c r="S9" s="3">
+        <v>32</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1.3704993937487719</v>
+      </c>
+      <c r="U9" s="3">
+        <v>45</v>
+      </c>
+      <c r="V9" s="3">
+        <v>30</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>121420800</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>80</v>
@@ -2245,13 +2981,40 @@
       <c r="N10" s="3">
         <v>-0.65805432612370329</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="3">
+        <v>40</v>
+      </c>
+      <c r="P10" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-0.55995703314883905</v>
+      </c>
+      <c r="R10" s="3">
+        <v>40</v>
+      </c>
+      <c r="S10" s="3">
+        <v>24</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.31779696086928039</v>
+      </c>
+      <c r="U10" s="3">
+        <v>45</v>
+      </c>
+      <c r="V10" s="3">
+        <v>25</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>121420900</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3">
         <v>80</v>
@@ -2283,13 +3046,40 @@
       <c r="N11" s="3">
         <v>-2.3292381251753582</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="3">
+        <v>40</v>
+      </c>
+      <c r="P11" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="R11" s="3">
+        <v>40</v>
+      </c>
+      <c r="S11" s="3">
+        <v>35</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1.765262806078582</v>
+      </c>
+      <c r="U11" s="3">
+        <v>45</v>
+      </c>
+      <c r="V11" s="3">
+        <v>30</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>121421000</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3">
         <v>80</v>
@@ -2327,13 +3117,40 @@
       <c r="N12" s="3">
         <v>-0.51273399577138545</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="3">
+        <v>40</v>
+      </c>
+      <c r="P12" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-6.3258744330621952E-2</v>
+      </c>
+      <c r="R12" s="3">
+        <v>40</v>
+      </c>
+      <c r="S12" s="3">
+        <v>22</v>
+      </c>
+      <c r="T12" s="3">
+        <v>5.4621352649407519E-2</v>
+      </c>
+      <c r="U12" s="3">
+        <v>45</v>
+      </c>
+      <c r="V12" s="3">
+        <v>10</v>
+      </c>
+      <c r="W12" s="3">
+        <v>-1.646614332341473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>121421100</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3">
         <v>80</v>
@@ -2371,13 +3188,40 @@
       <c r="N13" s="3">
         <v>-0.1494331698905908</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="3">
+        <v>40</v>
+      </c>
+      <c r="P13" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9235344109422461</v>
+      </c>
+      <c r="R13" s="3">
+        <v>40</v>
+      </c>
+      <c r="S13" s="3">
+        <v>17</v>
+      </c>
+      <c r="T13" s="3">
+        <v>-0.60331766790027475</v>
+      </c>
+      <c r="U13" s="3">
+        <v>45</v>
+      </c>
+      <c r="V13" s="3">
+        <v>30</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>121421200</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>80</v>
@@ -2415,13 +3259,40 @@
       <c r="N14" s="3">
         <v>0.7951489773994751</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="3">
+        <v>40</v>
+      </c>
+      <c r="P14" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.68178868889670363</v>
+      </c>
+      <c r="R14" s="3">
+        <v>40</v>
+      </c>
+      <c r="S14" s="3">
+        <v>15</v>
+      </c>
+      <c r="T14" s="3">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="U14" s="3">
+        <v>45</v>
+      </c>
+      <c r="V14" s="3">
+        <v>15</v>
+      </c>
+      <c r="W14" s="3">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>121421300</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3">
         <v>80</v>
@@ -2459,13 +3330,40 @@
       <c r="N15" s="3">
         <v>-0.44007383059522648</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="3">
+        <v>40</v>
+      </c>
+      <c r="P15" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>6.0915827873932328E-2</v>
+      </c>
+      <c r="R15" s="3">
+        <v>40</v>
+      </c>
+      <c r="S15" s="3">
+        <v>35</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1.765262806078582</v>
+      </c>
+      <c r="U15" s="3">
+        <v>45</v>
+      </c>
+      <c r="V15" s="3">
+        <v>25</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>121421400</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3">
         <v>80</v>
@@ -2503,13 +3401,40 @@
       <c r="N16" s="3">
         <v>0.2138676559902038</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="3">
+        <v>40</v>
+      </c>
+      <c r="P16" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-1.553353610785273</v>
+      </c>
+      <c r="R16" s="3">
+        <v>40</v>
+      </c>
+      <c r="S16" s="3">
+        <v>29</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.97573598141896278</v>
+      </c>
+      <c r="U16" s="3">
+        <v>45</v>
+      </c>
+      <c r="V16" s="3">
+        <v>40</v>
+      </c>
+      <c r="W16" s="3">
+        <v>2.1204601833749899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>121421500</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3">
         <v>80</v>
@@ -2547,13 +3472,40 @@
       <c r="N17" s="3">
         <v>6.8547325637885917E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="3">
+        <v>40</v>
+      </c>
+      <c r="P17" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>6.0915827873932328E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <v>40</v>
+      </c>
+      <c r="S17" s="3">
+        <v>27</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.71256037319908982</v>
+      </c>
+      <c r="U17" s="3">
+        <v>45</v>
+      </c>
+      <c r="V17" s="3">
+        <v>30</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>121421600</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3">
         <v>80</v>
@@ -2591,13 +3543,40 @@
       <c r="N18" s="3">
         <v>0.64982864704715726</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="3">
+        <v>40</v>
+      </c>
+      <c r="P18" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="R18" s="3">
+        <v>40</v>
+      </c>
+      <c r="S18" s="3">
+        <v>19</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-0.3401420596804019</v>
+      </c>
+      <c r="U18" s="3">
+        <v>45</v>
+      </c>
+      <c r="V18" s="3">
+        <v>25</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>121421700</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3">
         <v>80</v>
@@ -2635,13 +3614,40 @@
       <c r="N19" s="3">
         <v>0.64982864704715726</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="3">
+        <v>40</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-2.422575616217153</v>
+      </c>
+      <c r="R19" s="3">
+        <v>40</v>
+      </c>
+      <c r="S19" s="3">
+        <v>20</v>
+      </c>
+      <c r="T19" s="3">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="U19" s="3">
+        <v>45</v>
+      </c>
+      <c r="V19" s="3">
+        <v>20</v>
+      </c>
+      <c r="W19" s="3">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>121421800</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3">
         <v>80</v>
@@ -2679,13 +3685,40 @@
       <c r="N20" s="3">
         <v>-0.1494331698905908</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="3">
+        <v>40</v>
+      </c>
+      <c r="P20" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-0.3116078887397305</v>
+      </c>
+      <c r="R20" s="3">
+        <v>40</v>
+      </c>
+      <c r="S20" s="3">
+        <v>15</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="U20" s="3">
+        <v>45</v>
+      </c>
+      <c r="V20" s="3">
+        <v>20</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>121421900</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3">
         <v>80</v>
@@ -2723,13 +3756,40 @@
       <c r="N21" s="3">
         <v>6.8547325637885917E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="3">
+        <v>40</v>
+      </c>
+      <c r="P21" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-1.18082989417161</v>
+      </c>
+      <c r="R21" s="3">
+        <v>40</v>
+      </c>
+      <c r="S21" s="3">
+        <v>17</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-0.60331766790027475</v>
+      </c>
+      <c r="U21" s="3">
+        <v>45</v>
+      </c>
+      <c r="V21" s="3">
+        <v>20</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>121422000</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3">
         <v>80</v>
@@ -2767,13 +3827,40 @@
       <c r="N22" s="3">
         <v>0.86780914257563402</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="3">
+        <v>40</v>
+      </c>
+      <c r="P22" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.68178868889670363</v>
+      </c>
+      <c r="R22" s="3">
+        <v>40</v>
+      </c>
+      <c r="S22" s="3">
+        <v>15</v>
+      </c>
+      <c r="T22" s="3">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="U22" s="3">
+        <v>45</v>
+      </c>
+      <c r="V22" s="3">
+        <v>10</v>
+      </c>
+      <c r="W22" s="3">
+        <v>-1.646614332341473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>121422100</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3">
         <v>80</v>
@@ -2811,13 +3898,40 @@
       <c r="N23" s="3">
         <v>1.085789638104111</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="3">
+        <v>40</v>
+      </c>
+      <c r="P23" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-0.3116078887397305</v>
+      </c>
+      <c r="R23" s="3">
+        <v>40</v>
+      </c>
+      <c r="S23" s="3">
+        <v>15</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="U23" s="3">
+        <v>45</v>
+      </c>
+      <c r="V23" s="3">
+        <v>35</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1.49261443075558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>121422200</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3">
         <v>80</v>
@@ -2849,13 +3963,40 @@
       <c r="N24" s="3">
         <v>0.50450831669483942</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="3">
+        <v>40</v>
+      </c>
+      <c r="P24" s="3">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0.55761411669214944</v>
+      </c>
+      <c r="R24" s="3">
+        <v>40</v>
+      </c>
+      <c r="S24" s="3">
+        <v>17</v>
+      </c>
+      <c r="T24" s="3">
+        <v>-0.60331766790027475</v>
+      </c>
+      <c r="U24" s="3">
+        <v>45</v>
+      </c>
+      <c r="V24" s="3">
+        <v>25</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>121422300</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3">
         <v>80</v>
@@ -2893,13 +4034,40 @@
       <c r="N25" s="3">
         <v>-0.1494331698905908</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="3">
+        <v>40</v>
+      </c>
+      <c r="P25" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.68178868889670363</v>
+      </c>
+      <c r="R25" s="3">
+        <v>40</v>
+      </c>
+      <c r="S25" s="3">
+        <v>27</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0.71256037319908982</v>
+      </c>
+      <c r="U25" s="3">
+        <v>45</v>
+      </c>
+      <c r="V25" s="3">
+        <v>25</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>121422400</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3">
         <v>80</v>
@@ -2937,13 +4105,40 @@
       <c r="N26" s="3">
         <v>0.7951489773994751</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="3">
+        <v>40</v>
+      </c>
+      <c r="P26" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="R26" s="3">
+        <v>40</v>
+      </c>
+      <c r="S26" s="3">
+        <v>27</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0.71256037319908982</v>
+      </c>
+      <c r="U26" s="3">
+        <v>45</v>
+      </c>
+      <c r="V26" s="3">
+        <v>15</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>121422500</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3">
         <v>80</v>
@@ -2981,13 +4176,40 @@
       <c r="N27" s="3">
         <v>6.8547325637885917E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="3">
+        <v>40</v>
+      </c>
+      <c r="P27" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-0.55995703314883905</v>
+      </c>
+      <c r="R27" s="3">
+        <v>40</v>
+      </c>
+      <c r="S27" s="3">
+        <v>17</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-0.60331766790027475</v>
+      </c>
+      <c r="U27" s="3">
+        <v>45</v>
+      </c>
+      <c r="V27" s="3">
+        <v>25</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>121422600</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3">
         <v>80</v>
@@ -3025,13 +4247,40 @@
       <c r="N28" s="3">
         <v>-7.6773004714431922E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="3">
+        <v>40</v>
+      </c>
+      <c r="P28" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="R28" s="3">
+        <v>40</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>-2.8403103377691949</v>
+      </c>
+      <c r="U28" s="3">
+        <v>45</v>
+      </c>
+      <c r="V28" s="3">
+        <v>35</v>
+      </c>
+      <c r="W28" s="3">
+        <v>1.49261443075558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>121422700</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C29" s="3">
         <v>80</v>
@@ -3069,13 +4318,40 @@
       <c r="N29" s="3">
         <v>-7.6773004714431922E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="3">
+        <v>40</v>
+      </c>
+      <c r="P29" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0.93013783330581223</v>
+      </c>
+      <c r="R29" s="3">
+        <v>40</v>
+      </c>
+      <c r="S29" s="3">
+        <v>27</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.71256037319908982</v>
+      </c>
+      <c r="U29" s="3">
+        <v>45</v>
+      </c>
+      <c r="V29" s="3">
+        <v>30</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>121422800</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C30" s="3">
         <v>80</v>
@@ -3113,13 +4389,40 @@
       <c r="N30" s="3">
         <v>-4.112839538273E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="3">
+        <v>40</v>
+      </c>
+      <c r="P30" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1.3026615499194749</v>
+      </c>
+      <c r="R30" s="3">
+        <v>40</v>
+      </c>
+      <c r="S30" s="3">
+        <v>20</v>
+      </c>
+      <c r="T30" s="3">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="U30" s="3">
+        <v>45</v>
+      </c>
+      <c r="V30" s="3">
+        <v>20</v>
+      </c>
+      <c r="W30" s="3">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>121422900</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C31" s="3">
         <v>80</v>
@@ -3157,13 +4460,40 @@
       <c r="N31" s="3">
         <v>-0.58539416094754437</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="3">
+        <v>40</v>
+      </c>
+      <c r="P31" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="R31" s="3">
+        <v>40</v>
+      </c>
+      <c r="S31" s="3">
+        <v>45</v>
+      </c>
+      <c r="T31" s="3">
+        <v>3.081140847177946</v>
+      </c>
+      <c r="U31" s="3">
+        <v>45</v>
+      </c>
+      <c r="V31" s="3">
+        <v>40</v>
+      </c>
+      <c r="W31" s="3">
+        <v>2.1204601833749899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>121423000</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C32" s="3">
         <v>80</v>
@@ -3201,13 +4531,34 @@
       <c r="N32" s="3">
         <v>0.35918798634252158</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="3">
+        <v>40</v>
+      </c>
+      <c r="P32" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-6.3258744330621952E-2</v>
+      </c>
+      <c r="R32" s="3">
+        <v>40</v>
+      </c>
+      <c r="S32" s="3">
+        <v>19</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-0.3401420596804019</v>
+      </c>
+      <c r="U32" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>121423100</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C33" s="3">
         <v>80</v>
@@ -3245,13 +4596,40 @@
       <c r="N33" s="3">
         <v>0.4318481515186805</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="3">
+        <v>40</v>
+      </c>
+      <c r="P33" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0.93013783330581223</v>
+      </c>
+      <c r="R33" s="3">
+        <v>40</v>
+      </c>
+      <c r="S33" s="3">
+        <v>30</v>
+      </c>
+      <c r="T33" s="3">
+        <v>1.1073237855288991</v>
+      </c>
+      <c r="U33" s="3">
+        <v>45</v>
+      </c>
+      <c r="V33" s="3">
+        <v>25</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>121423200</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" s="3">
         <v>80</v>
@@ -3289,13 +4667,40 @@
       <c r="N34" s="3">
         <v>1.085789638104111</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="3">
+        <v>40</v>
+      </c>
+      <c r="P34" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0.68178868889670363</v>
+      </c>
+      <c r="R34" s="3">
+        <v>40</v>
+      </c>
+      <c r="S34" s="3">
+        <v>32</v>
+      </c>
+      <c r="T34" s="3">
+        <v>1.3704993937487719</v>
+      </c>
+      <c r="U34" s="3">
+        <v>45</v>
+      </c>
+      <c r="V34" s="3">
+        <v>35</v>
+      </c>
+      <c r="W34" s="3">
+        <v>1.49261443075558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>121423300</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3">
         <v>80</v>
@@ -3333,13 +4738,40 @@
       <c r="N35" s="3">
         <v>1.4490904639849049</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="3">
+        <v>40</v>
+      </c>
+      <c r="P35" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-1.553353610785273</v>
+      </c>
+      <c r="R35" s="3">
+        <v>40</v>
+      </c>
+      <c r="S35" s="3">
+        <v>34</v>
+      </c>
+      <c r="T35" s="3">
+        <v>1.633675001968645</v>
+      </c>
+      <c r="U35" s="3">
+        <v>45</v>
+      </c>
+      <c r="V35" s="3">
+        <v>40</v>
+      </c>
+      <c r="W35" s="3">
+        <v>2.1204601833749899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>121423400</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3">
         <v>80</v>
@@ -3377,13 +4809,40 @@
       <c r="N36" s="3">
         <v>-0.29475350024290869</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="3">
+        <v>40</v>
+      </c>
+      <c r="P36" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>-0.55995703314883905</v>
+      </c>
+      <c r="R36" s="3">
+        <v>40</v>
+      </c>
+      <c r="S36" s="3">
+        <v>24</v>
+      </c>
+      <c r="T36" s="3">
+        <v>0.31779696086928039</v>
+      </c>
+      <c r="U36" s="3">
+        <v>45</v>
+      </c>
+      <c r="V36" s="3">
+        <v>20</v>
+      </c>
+      <c r="W36" s="3">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>121423500</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3">
         <v>80</v>
@@ -3421,13 +4880,40 @@
       <c r="N37" s="3">
         <v>-7.6773004714431922E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="3">
+        <v>40</v>
+      </c>
+      <c r="P37" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>-0.55995703314883905</v>
+      </c>
+      <c r="R37" s="3">
+        <v>40</v>
+      </c>
+      <c r="S37" s="3">
+        <v>20</v>
+      </c>
+      <c r="T37" s="3">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="U37" s="3">
+        <v>45</v>
+      </c>
+      <c r="V37" s="3">
+        <v>25</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>121423600</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C38" s="3">
         <v>80</v>
@@ -3465,13 +4951,34 @@
       <c r="N38" s="3">
         <v>-0.22209333506674969</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="3">
+        <v>40</v>
+      </c>
+      <c r="P38" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>-0.55995703314883905</v>
+      </c>
+      <c r="R38" s="3">
+        <v>40</v>
+      </c>
+      <c r="U38" s="3">
+        <v>45</v>
+      </c>
+      <c r="V38" s="3">
+        <v>20</v>
+      </c>
+      <c r="W38" s="3">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>121423700</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C39" s="3">
         <v>80</v>
@@ -3509,13 +5016,40 @@
       <c r="N39" s="3">
         <v>-2.3292381251753582</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="3">
+        <v>40</v>
+      </c>
+      <c r="P39" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>-1.3050044663761651</v>
+      </c>
+      <c r="R39" s="3">
+        <v>40</v>
+      </c>
+      <c r="S39" s="3">
+        <v>20</v>
+      </c>
+      <c r="T39" s="3">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="U39" s="3">
+        <v>45</v>
+      </c>
+      <c r="V39" s="3">
+        <v>15</v>
+      </c>
+      <c r="W39" s="3">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>121423800</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C40" s="3">
         <v>80</v>
@@ -3553,13 +5087,40 @@
       <c r="N40" s="3">
         <v>-7.6773004714431922E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="3">
+        <v>40</v>
+      </c>
+      <c r="P40" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="R40" s="3">
+        <v>40</v>
+      </c>
+      <c r="S40" s="3">
+        <v>24</v>
+      </c>
+      <c r="T40" s="3">
+        <v>0.31779696086928039</v>
+      </c>
+      <c r="U40" s="3">
+        <v>45</v>
+      </c>
+      <c r="V40" s="3">
+        <v>20</v>
+      </c>
+      <c r="W40" s="3">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>121423900</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3">
         <v>80</v>
@@ -3597,13 +5158,40 @@
       <c r="N41" s="3">
         <v>-0.44007383059522648</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="3">
+        <v>40</v>
+      </c>
+      <c r="P41" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>-0.3116078887397305</v>
+      </c>
+      <c r="R41" s="3">
+        <v>40</v>
+      </c>
+      <c r="S41" s="3">
+        <v>24</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0.31779696086928039</v>
+      </c>
+      <c r="U41" s="3">
+        <v>45</v>
+      </c>
+      <c r="V41" s="3">
+        <v>10</v>
+      </c>
+      <c r="W41" s="3">
+        <v>-1.646614332341473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>121424000</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C42" s="3">
         <v>80</v>
@@ -3641,13 +5229,40 @@
       <c r="N42" s="3">
         <v>-0.29475350024290869</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="3">
+        <v>40</v>
+      </c>
+      <c r="P42" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0.68178868889670363</v>
+      </c>
+      <c r="R42" s="3">
+        <v>40</v>
+      </c>
+      <c r="S42" s="3">
+        <v>20</v>
+      </c>
+      <c r="T42" s="3">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="U42" s="3">
+        <v>45</v>
+      </c>
+      <c r="V42" s="3">
+        <v>20</v>
+      </c>
+      <c r="W42" s="3">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>121424100</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C43" s="3">
         <v>80</v>
@@ -3685,13 +5300,40 @@
       <c r="N43" s="3">
         <v>-0.87603482165218005</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="3">
+        <v>40</v>
+      </c>
+      <c r="P43" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>-0.55995703314883905</v>
+      </c>
+      <c r="R43" s="3">
+        <v>40</v>
+      </c>
+      <c r="S43" s="3">
+        <v>22</v>
+      </c>
+      <c r="T43" s="3">
+        <v>5.4621352649407519E-2</v>
+      </c>
+      <c r="U43" s="3">
+        <v>45</v>
+      </c>
+      <c r="V43" s="3">
+        <v>30</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>121424200</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C44" s="3">
         <v>80</v>
@@ -3729,13 +5371,40 @@
       <c r="N44" s="3">
         <v>-0.73071449129986221</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="3">
+        <v>40</v>
+      </c>
+      <c r="P44" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>-1.18082989417161</v>
+      </c>
+      <c r="R44" s="3">
+        <v>40</v>
+      </c>
+      <c r="S44" s="3">
+        <v>14</v>
+      </c>
+      <c r="T44" s="3">
+        <v>-0.99808108023008424</v>
+      </c>
+      <c r="U44" s="3">
+        <v>45</v>
+      </c>
+      <c r="V44" s="3">
+        <v>15</v>
+      </c>
+      <c r="W44" s="3">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>121424300</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C45" s="3">
         <v>80</v>
@@ -3767,28 +5436,43 @@
       <c r="L45" s="3">
         <v>80</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="3">
+        <v>40</v>
+      </c>
+      <c r="P45" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>6.0915827873932328E-2</v>
+      </c>
+      <c r="R45" s="3">
+        <v>40</v>
+      </c>
+      <c r="S45" s="3">
+        <v>20</v>
+      </c>
+      <c r="T45" s="3">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="U45" s="3">
+        <v>45</v>
+      </c>
+      <c r="V45" s="3">
+        <v>15</v>
+      </c>
+      <c r="W45" s="3">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>121424400</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C46" s="3">
         <v>80</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>45</v>
@@ -3817,13 +5501,34 @@
       <c r="N46" s="3">
         <v>-1.0213551520044979</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="3">
+        <v>40</v>
+      </c>
+      <c r="R46" s="3">
+        <v>40</v>
+      </c>
+      <c r="S46" s="3">
+        <v>15</v>
+      </c>
+      <c r="T46" s="3">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="U46" s="3">
+        <v>45</v>
+      </c>
+      <c r="V46" s="3">
+        <v>20</v>
+      </c>
+      <c r="W46" s="3">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>121424500</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3">
         <v>80</v>
@@ -3861,13 +5566,40 @@
       <c r="N47" s="3">
         <v>-7.6773004714431922E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="3">
+        <v>40</v>
+      </c>
+      <c r="P47" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="R47" s="3">
+        <v>40</v>
+      </c>
+      <c r="S47" s="3">
+        <v>22</v>
+      </c>
+      <c r="T47" s="3">
+        <v>5.4621352649407519E-2</v>
+      </c>
+      <c r="U47" s="3">
+        <v>45</v>
+      </c>
+      <c r="V47" s="3">
+        <v>25</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0.2369229255167587</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>121424600</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3">
         <v>80</v>
@@ -3905,13 +5637,40 @@
       <c r="N48" s="3">
         <v>1.0131294729279521</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="3">
+        <v>40</v>
+      </c>
+      <c r="P48" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0.30926497228304078</v>
+      </c>
+      <c r="R48" s="3">
+        <v>40</v>
+      </c>
+      <c r="S48" s="3">
+        <v>15</v>
+      </c>
+      <c r="T48" s="3">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="U48" s="3">
+        <v>45</v>
+      </c>
+      <c r="V48" s="3">
+        <v>10</v>
+      </c>
+      <c r="W48" s="3">
+        <v>-1.646614332341473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>121424700</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3">
         <v>80</v>
@@ -3925,9 +5684,6 @@
       <c r="F49" s="3">
         <v>45</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
       <c r="I49" s="3">
         <v>40</v>
       </c>
@@ -3946,13 +5702,40 @@
       <c r="N49" s="3">
         <v>-2.3292381251753582</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="3">
+        <v>40</v>
+      </c>
+      <c r="P49" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>6.0915827873932328E-2</v>
+      </c>
+      <c r="R49" s="3">
+        <v>40</v>
+      </c>
+      <c r="S49" s="3">
+        <v>20</v>
+      </c>
+      <c r="T49" s="3">
+        <v>-0.20855425557046539</v>
+      </c>
+      <c r="U49" s="3">
+        <v>45</v>
+      </c>
+      <c r="V49" s="3">
+        <v>20</v>
+      </c>
+      <c r="W49" s="3">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>121424800</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3">
         <v>80</v>
@@ -3990,13 +5773,40 @@
       <c r="N50" s="3">
         <v>0.14120749081404491</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="3">
+        <v>40</v>
+      </c>
+      <c r="P50" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>-1.18082989417161</v>
+      </c>
+      <c r="R50" s="3">
+        <v>40</v>
+      </c>
+      <c r="S50" s="3">
+        <v>22</v>
+      </c>
+      <c r="T50" s="3">
+        <v>5.4621352649407519E-2</v>
+      </c>
+      <c r="U50" s="3">
+        <v>45</v>
+      </c>
+      <c r="V50" s="3">
+        <v>20</v>
+      </c>
+      <c r="W50" s="3">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>121424900</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3">
         <v>80</v>
@@ -4016,19 +5826,25 @@
       <c r="I51" s="3">
         <v>40</v>
       </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
       <c r="L51" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="3">
+        <v>40</v>
+      </c>
+      <c r="R51" s="3">
+        <v>40</v>
+      </c>
+      <c r="U51" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>121425000</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3">
         <v>80</v>
@@ -4066,13 +5882,40 @@
       <c r="N52" s="3">
         <v>-0.94869498682833897</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="3">
+        <v>40</v>
+      </c>
+      <c r="P52" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>-0.3116078887397305</v>
+      </c>
+      <c r="R52" s="3">
+        <v>40</v>
+      </c>
+      <c r="S52" s="3">
+        <v>24</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0.31779696086928039</v>
+      </c>
+      <c r="U52" s="3">
+        <v>45</v>
+      </c>
+      <c r="V52" s="3">
+        <v>15</v>
+      </c>
+      <c r="W52" s="3">
+        <v>-1.018768579722062</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>121425100</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C53" s="3">
         <v>80</v>
@@ -4110,13 +5953,40 @@
       <c r="N53" s="3">
         <v>-2.3292381251753582</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="3">
+        <v>40</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>-2.422575616217153</v>
+      </c>
+      <c r="R53" s="3">
+        <v>40</v>
+      </c>
+      <c r="S53" s="3">
+        <v>15</v>
+      </c>
+      <c r="T53" s="3">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="U53" s="3">
+        <v>45</v>
+      </c>
+      <c r="V53" s="3">
+        <v>20</v>
+      </c>
+      <c r="W53" s="3">
+        <v>-0.39092282710265169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>121425200</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C54" s="3">
         <v>80</v>
@@ -4154,13 +6024,40 @@
       <c r="N54" s="3">
         <v>-0.1494331698905908</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="3">
+        <v>40</v>
+      </c>
+      <c r="P54" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>6.0915827873932328E-2</v>
+      </c>
+      <c r="R54" s="3">
+        <v>40</v>
+      </c>
+      <c r="S54" s="3">
+        <v>17</v>
+      </c>
+      <c r="T54" s="3">
+        <v>-0.60331766790027475</v>
+      </c>
+      <c r="U54" s="3">
+        <v>45</v>
+      </c>
+      <c r="V54" s="3">
+        <v>30</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>121425300</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C55" s="3">
         <v>80</v>
@@ -4198,13 +6095,40 @@
       <c r="N55" s="3">
         <v>-0.65805432612370329</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="3">
+        <v>40</v>
+      </c>
+      <c r="P55" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>0.93013783330581223</v>
+      </c>
+      <c r="R55" s="3">
+        <v>40</v>
+      </c>
+      <c r="S55" s="3">
+        <v>22</v>
+      </c>
+      <c r="T55" s="3">
+        <v>5.4621352649407519E-2</v>
+      </c>
+      <c r="U55" s="3">
+        <v>45</v>
+      </c>
+      <c r="V55" s="3">
+        <v>30</v>
+      </c>
+      <c r="W55" s="3">
+        <v>0.8647686781361692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>121425400</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C56" s="3">
         <v>80</v>
@@ -4236,16 +6160,46 @@
       <c r="N56" s="3">
         <v>0.14120749081404491</v>
       </c>
+      <c r="O56" s="3">
+        <v>40</v>
+      </c>
+      <c r="P56" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>-0.3116078887397305</v>
+      </c>
+      <c r="R56" s="3">
+        <v>40</v>
+      </c>
+      <c r="S56" s="3">
+        <v>15</v>
+      </c>
+      <c r="T56" s="3">
+        <v>-0.8664932761201477</v>
+      </c>
+      <c r="U56" s="3">
+        <v>45</v>
+      </c>
+      <c r="V56" s="3">
+        <v>15</v>
+      </c>
+      <c r="W56" s="3">
+        <v>-1.018768579722062</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="R1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>